--- a/mageproductcsv/resources/bra-electric-hair-trimmer.xlsx
+++ b/mageproductcsv/resources/bra-electric-hair-trimmer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="-140" yWindow="560" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <r>
       <t>BRA</t>
@@ -60,10 +60,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i3/15057938/T2jPJLXexdXXXXXXXX_!!15057938.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/2653609950/TB2zIRNlVXXXXcbXXXXXXXXXXXX_!!2653609950.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/2653609950/TB2XFJUlVXXXXaWXXXXXXXXXXXX_!!2653609950.jpg' /&gt;</t>
   </si>
   <si>
@@ -126,10 +122,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i3/1988836839/TB2rJGpjFXXXXa2XXXXXXXXXXXX_!!1988836839.png</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/1988836839/TB2QgKsjFXXXXaHXXXXXXXXXXXX_!!1988836839.png'/&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/1988836839/TB2oxGjjFXXXXb2XXXXXXXXXXXX_!!1988836839.png' /&gt;</t>
   </si>
   <si>
@@ -157,10 +149,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i2/13706421/TB2z9VHhpXXXXb8XXXXXXXXXXXX_!!13706421.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/13706421/TB22cxNhpXXXXaRXXXXXXXXXXXX_!!13706421.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/13706421/TB2OYJMhpXXXXaZXXXXXXXXXXXX_!!13706421.jpg' /&gt;</t>
   </si>
   <si>
@@ -220,15 +208,66 @@
   </si>
   <si>
     <t>brand</t>
+  </si>
+  <si>
+    <t>/braun/braun-trimmer-SE3270.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-trimmer-7921.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-trimmer-7951.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-trimmer-3175.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun-trimmer-5185.jpg</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>url-key</t>
+  </si>
+  <si>
+    <t>braun-trimmer-SE3270</t>
+  </si>
+  <si>
+    <t>braun-trimmer-7921</t>
+  </si>
+  <si>
+    <t>braun-trimmer-7951</t>
+  </si>
+  <si>
+    <t>braun-trimmer-3175.jpg</t>
+  </si>
+  <si>
+    <t>braun-trimmer-5185.jpg</t>
+  </si>
+  <si>
+    <t>zh-braun-trimmer-SE3270</t>
+  </si>
+  <si>
+    <t>zh-braun-trimmer-7921</t>
+  </si>
+  <si>
+    <t>zh-braun-trimmer-7951</t>
+  </si>
+  <si>
+    <t>zh-braun-trimmer-3175.jpg</t>
+  </si>
+  <si>
+    <t>zh-braun-trimmer-5185.jpg</t>
+  </si>
+  <si>
+    <t>&lt;img /&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -247,9 +286,10 @@
     <font>
       <u/>
       <sz val="12"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -275,27 +315,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -625,50 +661,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="2" max="2" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" customWidth="1"/>
+    <col min="5" max="5" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="53.83203125" customWidth="1"/>
+    <col min="10" max="10" width="57.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
@@ -695,531 +743,189 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="C3" s="2">
         <v>169</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
         <v>155</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2">
         <v>51</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2">
         <v>79</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="1"/>
-      <c r="J6" s="3"/>
+      <c r="I6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="K6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>94</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2">
-        <v>169</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2">
-        <v>155</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2">
-        <v>51</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="2">
-        <v>79</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="2">
-        <v>94</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2">
-        <v>169</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2">
-        <v>155</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="2">
-        <v>51</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="2">
-        <v>79</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I7" r:id="rId2"/>
-    <hyperlink ref="I12" r:id="rId3"/>
-    <hyperlink ref="I4" r:id="rId4"/>
-    <hyperlink ref="I9" r:id="rId5"/>
-    <hyperlink ref="I14" r:id="rId6"/>
-    <hyperlink ref="I5" r:id="rId7"/>
-    <hyperlink ref="I10" r:id="rId8"/>
-    <hyperlink ref="I15" r:id="rId9"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
